--- a/etc/프로젝트 기능.xlsx
+++ b/etc/프로젝트 기능.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITPS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITPS\Documents\240704-project\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>국내 해외 여행지 소개 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,27 +79,237 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>여행지까지 이동방법(링크 이용하여 카카오맵 or 네이버 지도의 길찾기로 이동, 도착지는 해당 여행지로 설정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길찾기 페이지(국내지역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공항편 정보(해외지역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼거리에 해당하는 공항이름과 한국에서 인근 공항까지 비행시간 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어 설정 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어, 영어 언어 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 또는 해당 카테고리를 클릭하면 상세 페이지 이동
+등록된 상세 정보를 보여주고(지도 api 넣어서 가져오기)
+상세페이지 안에서 후기 및 댓글을 달고 좋아요 표시나 공감 표시 선택 -&gt; 로그인 기능 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호, 이메일, 이름, 성별, 나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라(select), 지역(select),카테고리(관광, 레저, 문화유적, 음식점 등), 장소명, 주소, 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라(select), 지역(select), 축제명, 주소, 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시큐리티 아니면 react cookie로 만들어야 됨, 
+2가지 방법 다 안되면 CRUD 기능만 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시큐리티 or cookie 등 사용해서 생성 필요
+위 방법으로 안 될 경우 아래만 작성
+- 회원가입 : 서버로 전송
+- 로그인 : 서버 데이터와 일치할 경우 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래 기능 중 한 개 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 카테고리 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 관련된 정보 등록(나라, 지역은 수기로 등록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제/공연 행사정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제/공연 행사정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리로 필터걸어서 검색결과 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리로 필터걸어서 검색결과 가져오기
+검색결과는 '표형식'으로 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광지 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외 여행지 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내 여행지 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내 축제 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 인기 있는 여행지 랭킹
+(각 지역을 클릭했을때 사진과 별점? 방문 수? 등이 표시되며 인기가 많은 순으로 표시가 되거나
+ 기본은 최신 등록순으로 정렬이 되어있지만 &lt;방문 수, 별점, 최신순&gt;으로 정렬 기능?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 인기 있는 여행지 랭킹
+(사진, 별점, 방문수 등으로 표시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외 인기 있는 여행지 랭킹 
+(사진, 별점, 방문수 등으로 표시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 인기 있는 축제 랭킹
+(사진, 별점, 방문수 등으로 표시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시 상세 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제 정보 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 여행지 관련된 정보 보여주기(수정, 삭제 기능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 카테고리 정보 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 여행지 관련된 정보 보여주기(수정, 삭제 기능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제/공연 행사정보 보여주기(수정, 삭제 기능)
+축제일순, 지역순으로 정렬 및 필터 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제/공연 행사정보 보여주기(수정, 삭제 기능)
+축제일순, 지역순으로 정렬 및 필터 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 정보 상세 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 코스 랜덤 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>지역 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여행 코스 랜덤 추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지까지 이동방법(링크 이용하여 카카오맵 or 네이버 지도의 길찾기로 이동, 도착지는 해당 여행지로 설정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길찾기 페이지(국내지역)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공항편 정보(해외지역)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>볼거리에 해당하는 공항이름과 한국에서 인근 공항까지 비행시간 표시</t>
+    <t>지역 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,200 +322,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>언어 설정 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국어, 영어 언어 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제/공연 행사정보 보여주기(수정, 삭제 기능)
-축제일순, 지역순으로 정렬 및 필터 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 정보 상세 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진 또는 해당 카테고리를 클릭하면 상세 페이지 이동
-등록된 상세 정보를 보여주고(지도 api 넣어서 가져오기)
-상세페이지 안에서 후기 및 댓글을 달고 좋아요 표시나 공감 표시 선택 -&gt; 로그인 기능 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디, 비밀번호, 이메일, 이름, 성별, 나이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라(select), 지역(select),카테고리(관광, 레저, 문화유적, 음식점 등), 장소명, 주소, 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라(select), 지역(select), 축제명, 주소, 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시큐리티 아니면 react cookie로 만들어야 됨, 
-2가지 방법 다 안되면 CRUD 기능만 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시큐리티 or cookie 등 사용해서 생성 필요
-위 방법으로 안 될 경우 아래만 작성
-- 회원가입 : 서버로 전송
-- 로그인 : 서버 데이터와 일치할 경우 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 정보 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아래 기능 중 한 개 넣기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세 메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 정보 등록</t>
+    <t>국내
+해당 지역 소개 및 볼거리(문화재 등등, 리뷰의 평점에 따른 추천 장소 or 랜덤으로 추천)
+볼거리를 선택했을 경우-&gt; 지도의 위치 표시(길찾기 페이지로 이동)
+해외
+해당 국가의 소개 및 볼거리
+볼거리를 선택했을 경우 -&gt; 공항편 정보 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내 클릭 시 길찾기 페이지 이동
+공항편 정보(해외지역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시 상세 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시 상세 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 상세페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제 상세페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리에 대한 내용을 상세하게 기재(주소에 따라 지도 표시되면 좋음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제에 대한 내용을 상세하게 기재(주소에 따라 지도 표시되면 좋음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>축제 정보 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 카테고리 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지 관련된 정보 등록(나라, 지역은 수기로 등록)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제/공연 행사정보 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제/공연 행사정보 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리로 필터걸어서 검색결과 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리로 필터걸어서 검색결과 가져오기
-검색결과는 '표형식'으로 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관광지 랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해외 여행지 랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국내 여행지 랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국내 축제 랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 인기 있는 여행지 랭킹
-(각 지역을 클릭했을때 사진과 별점? 방문 수? 등이 표시되며 인기가 많은 순으로 표시가 되거나
- 기본은 최신 등록순으로 정렬이 되어있지만 &lt;방문 수, 별점, 최신순&gt;으로 정렬 기능?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 인기 있는 여행지 랭킹
-(사진, 별점, 방문수 등으로 표시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해외 인기 있는 여행지 랭킹 
-(사진, 별점, 방문수 등으로 표시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 인기 있는 축제 랭킹
-(사진, 별점, 방문수 등으로 표시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭 시 상세 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 카테고리 정보 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제 정보 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록한 여행지 관련된 정보 보여주기(수정, 삭제 기능)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,15 +389,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -361,30 +426,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -393,16 +446,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,183 +743,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.75" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" t="s">
+      <c r="F12" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
+      <c r="F13" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="165" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B16:C19"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B3:C5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -908,10 +1044,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -924,13 +1060,13 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -938,10 +1074,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -949,23 +1085,23 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -973,20 +1109,20 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>23</v>
+      <c r="C13" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -994,34 +1130,34 @@
     </row>
     <row r="15" spans="2:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/etc/프로젝트 기능.xlsx
+++ b/etc/프로젝트 기능.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>국내 해외 여행지 소개 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,10 +114,6 @@
   </si>
   <si>
     <t>나라(select), 지역(select),카테고리(관광, 레저, 문화유적, 음식점 등), 장소명, 주소, 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라(select), 지역(select), 축제명, 주소, 상세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,31 +157,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아래 기능 중 한 개 넣기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상세 메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여행 정보 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정보 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 카테고리 검색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -365,6 +345,42 @@
   </si>
   <si>
     <t>축제 정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹 내역으로 5초 간격으로 하나씩 띄우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안성빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라(select), 지역(select), 축제명, 주소, 상세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,12 +464,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -462,6 +472,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -758,210 +774,233 @@
     <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="16" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="165" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
@@ -969,10 +1008,11 @@
         <v>13</v>
       </c>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
@@ -980,6 +1020,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1004,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1044,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1060,10 +1101,10 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -1074,10 +1115,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -1085,23 +1126,23 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -1109,12 +1150,12 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="7" t="s">
-        <v>64</v>
+      <c r="C13" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
@@ -1122,7 +1163,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1130,10 +1171,10 @@
     </row>
     <row r="15" spans="2:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">

--- a/etc/프로젝트 기능.xlsx
+++ b/etc/프로젝트 기능.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITPS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITPS\Documents\240704-project\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>국내 해외 여행지 소개 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,27 +79,217 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>여행지까지 이동방법(링크 이용하여 카카오맵 or 네이버 지도의 길찾기로 이동, 도착지는 해당 여행지로 설정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길찾기 페이지(국내지역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공항편 정보(해외지역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼거리에 해당하는 공항이름과 한국에서 인근 공항까지 비행시간 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어 설정 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어, 영어 언어 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 또는 해당 카테고리를 클릭하면 상세 페이지 이동
+등록된 상세 정보를 보여주고(지도 api 넣어서 가져오기)
+상세페이지 안에서 후기 및 댓글을 달고 좋아요 표시나 공감 표시 선택 -&gt; 로그인 기능 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호, 이메일, 이름, 성별, 나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라(select), 지역(select),카테고리(관광, 레저, 문화유적, 음식점 등), 장소명, 주소, 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시큐리티 아니면 react cookie로 만들어야 됨, 
+2가지 방법 다 안되면 CRUD 기능만 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시큐리티 or cookie 등 사용해서 생성 필요
+위 방법으로 안 될 경우 아래만 작성
+- 회원가입 : 서버로 전송
+- 로그인 : 서버 데이터와 일치할 경우 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 관련된 정보 등록(나라, 지역은 수기로 등록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제/공연 행사정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제/공연 행사정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리로 필터걸어서 검색결과 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리로 필터걸어서 검색결과 가져오기
+검색결과는 '표형식'으로 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광지 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외 여행지 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내 여행지 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내 축제 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 인기 있는 여행지 랭킹
+(각 지역을 클릭했을때 사진과 별점? 방문 수? 등이 표시되며 인기가 많은 순으로 표시가 되거나
+ 기본은 최신 등록순으로 정렬이 되어있지만 &lt;방문 수, 별점, 최신순&gt;으로 정렬 기능?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 인기 있는 여행지 랭킹
+(사진, 별점, 방문수 등으로 표시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외 인기 있는 여행지 랭킹 
+(사진, 별점, 방문수 등으로 표시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 인기 있는 축제 랭킹
+(사진, 별점, 방문수 등으로 표시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시 상세 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제 정보 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 여행지 관련된 정보 보여주기(수정, 삭제 기능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 카테고리 정보 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 여행지 관련된 정보 보여주기(수정, 삭제 기능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제/공연 행사정보 보여주기(수정, 삭제 기능)
+축제일순, 지역순으로 정렬 및 필터 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제/공연 행사정보 보여주기(수정, 삭제 기능)
+축제일순, 지역순으로 정렬 및 필터 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 정보 상세 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 코스 랜덤 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>지역 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여행 코스 랜덤 추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지까지 이동방법(링크 이용하여 카카오맵 or 네이버 지도의 길찾기로 이동, 도착지는 해당 여행지로 설정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길찾기 페이지(국내지역)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공항편 정보(해외지역)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>볼거리에 해당하는 공항이름과 한국에서 인근 공항까지 비행시간 표시</t>
+    <t>지역 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,200 +302,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>언어 설정 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국어, 영어 언어 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제/공연 행사정보 보여주기(수정, 삭제 기능)
-축제일순, 지역순으로 정렬 및 필터 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 정보 상세 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진 또는 해당 카테고리를 클릭하면 상세 페이지 이동
-등록된 상세 정보를 보여주고(지도 api 넣어서 가져오기)
-상세페이지 안에서 후기 및 댓글을 달고 좋아요 표시나 공감 표시 선택 -&gt; 로그인 기능 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디, 비밀번호, 이메일, 이름, 성별, 나이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라(select), 지역(select),카테고리(관광, 레저, 문화유적, 음식점 등), 장소명, 주소, 상세</t>
+    <t>국내
+해당 지역 소개 및 볼거리(문화재 등등, 리뷰의 평점에 따른 추천 장소 or 랜덤으로 추천)
+볼거리를 선택했을 경우-&gt; 지도의 위치 표시(길찾기 페이지로 이동)
+해외
+해당 국가의 소개 및 볼거리
+볼거리를 선택했을 경우 -&gt; 공항편 정보 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내 클릭 시 길찾기 페이지 이동
+공항편 정보(해외지역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시 상세 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시 상세 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 상세페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제 상세페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리에 대한 내용을 상세하게 기재(주소에 따라 지도 표시되면 좋음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제에 대한 내용을 상세하게 기재(주소에 따라 지도 표시되면 좋음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제 정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹 내역으로 5초 간격으로 하나씩 띄우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안성빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>나라(select), 지역(select), 축제명, 주소, 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시큐리티 아니면 react cookie로 만들어야 됨, 
-2가지 방법 다 안되면 CRUD 기능만 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시큐리티 or cookie 등 사용해서 생성 필요
-위 방법으로 안 될 경우 아래만 작성
-- 회원가입 : 서버로 전송
-- 로그인 : 서버 데이터와 일치할 경우 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 정보 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아래 기능 중 한 개 넣기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세 메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 정보 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제 정보 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 카테고리 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지 관련된 정보 등록(나라, 지역은 수기로 등록)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제/공연 행사정보 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제/공연 행사정보 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리로 필터걸어서 검색결과 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리로 필터걸어서 검색결과 가져오기
-검색결과는 '표형식'으로 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관광지 랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해외 여행지 랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국내 여행지 랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국내 축제 랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 인기 있는 여행지 랭킹
-(각 지역을 클릭했을때 사진과 별점? 방문 수? 등이 표시되며 인기가 많은 순으로 표시가 되거나
- 기본은 최신 등록순으로 정렬이 되어있지만 &lt;방문 수, 별점, 최신순&gt;으로 정렬 기능?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 인기 있는 여행지 랭킹
-(사진, 별점, 방문수 등으로 표시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해외 인기 있는 여행지 랭킹 
-(사진, 별점, 방문수 등으로 표시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 인기 있는 축제 랭킹
-(사진, 별점, 방문수 등으로 표시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭 시 상세 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 카테고리 정보 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제 정보 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록한 여행지 관련된 정보 보여주기(수정, 삭제 기능)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,15 +405,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -361,30 +442,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -393,16 +462,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,183 +759,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.75" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="F12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" t="s">
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
+      <c r="F14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="16" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B16:C19"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B3:C5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -868,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -908,10 +1085,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -924,13 +1101,13 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -938,10 +1115,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -949,23 +1126,23 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -973,20 +1150,20 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>23</v>
+      <c r="C13" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -994,34 +1171,34 @@
     </row>
     <row r="15" spans="2:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/etc/프로젝트 기능.xlsx
+++ b/etc/프로젝트 기능.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>국내 해외 여행지 소개 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,11 +182,6 @@
   </si>
   <si>
     <t>카테고리로 필터걸어서 검색결과 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리로 필터걸어서 검색결과 가져오기
-검색결과는 '표형식'으로 가져오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -348,7 +343,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>랭킹</t>
+    <t>담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안성빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라(select), 지역(select), 축제명, 주소, 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹(일부분만)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -356,31 +379,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>담당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 정보 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안성빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구형준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라(select), 지역(select), 축제명, 주소, 상세</t>
+    <t>여행지 관련된 정보 등록(나라, 지역은 수기로 등록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리로 필터걸어서 검색결과 가져오기
+검색결과는 '표형식'으로 가져오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -442,13 +446,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -477,7 +507,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,7 +807,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -775,232 +820,235 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>76</v>
+      <c r="F2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>78</v>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>79</v>
+      <c r="G6" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
+      <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:7" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="16" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1008,11 +1056,11 @@
         <v>13</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1020,10 +1068,12 @@
         <v>16</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="B16:C19"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:C11"/>
@@ -1118,7 +1168,7 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -1131,18 +1181,18 @@
     </row>
     <row r="10" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -1150,12 +1200,12 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
@@ -1163,7 +1213,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1171,10 +1221,10 @@
     </row>
     <row r="15" spans="2:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">

--- a/etc/프로젝트 기능.xlsx
+++ b/etc/프로젝트 기능.xlsx
@@ -10,6 +10,7 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="8370"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="최종" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>국내 해외 여행지 소개 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,12 +215,6 @@
   </si>
   <si>
     <t>지역별 인기 있는 여행지 랭킹
-(각 지역을 클릭했을때 사진과 별점? 방문 수? 등이 표시되며 인기가 많은 순으로 표시가 되거나
- 기본은 최신 등록순으로 정렬이 되어있지만 &lt;방문 수, 별점, 최신순&gt;으로 정렬 기능?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 인기 있는 여행지 랭킹
 (사진, 별점, 방문수 등으로 표시)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,15 +250,6 @@
   </si>
   <si>
     <t>여행 카테고리 정보 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록한 여행지 관련된 정보 보여주기(수정, 삭제 기능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제/공연 행사정보 보여주기(수정, 삭제 기능)
-축제일순, 지역순으로 정렬 및 필터 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -297,15 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>국내
-해당 지역 소개 및 볼거리(문화재 등등, 리뷰의 평점에 따른 추천 장소 or 랜덤으로 추천)
-볼거리를 선택했을 경우-&gt; 지도의 위치 표시(길찾기 페이지로 이동)
-해외
-해당 국가의 소개 및 볼거리
-볼거리를 선택했을 경우 -&gt; 공항편 정보 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>국내 클릭 시 길찾기 페이지 이동
 공항편 정보(해외지역)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,14 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카테고리에 대한 내용을 상세하게 기재(주소에 따라 지도 표시되면 좋음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제에 대한 내용을 상세하게 기재(주소에 따라 지도 표시되면 좋음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상세페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,6 +354,98 @@
   <si>
     <t>카테고리로 필터걸어서 검색결과 가져오기
 검색결과는 '표형식'으로 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김강태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login 기능 완성되고 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제에 대한 내용을 상세하게 기재(주소에 따라 지도 표시되면 좋음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 인기 있는 여행지 랭킹
+(각 지역을 클릭했을때 사진과 별점? 방문 수? 등이 표시되며 인기가 많은 순으로 표시가 되거나
+ 기본은 최신 등록순으로 정렬이 되어있지만 &lt;방문 수, 별점, 최신순&gt;으로 정렬 기능?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰ID, TRAVELINFOID(외래키), USERID(외래키), REVIEW 점수, REVIEW 내용</t>
+  </si>
+  <si>
+    <t>카테고리에 대한 내용을 상세하게 기재(주소에 따라 지도 표시되면 좋음)
+카테고리 상세페이지, 축제 상세페이지에서 리뷰 작성하고 바로 확인 할 수 있게 하면 될 것 같습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 여행지 관련된 정보 보여주기(수정, 삭제 기능)
+장소명 옆에 별점 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제/공연 행사정보 보여주기(수정, 삭제 기능)
+축제일순, 지역순으로 정렬 및 필터 기능
+축제명 옆에 별점 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별점 리뷰기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel_info</t>
+  </si>
+  <si>
+    <t>축제 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안성빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안성빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김강태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +453,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +466,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -478,7 +547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -506,23 +575,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,11 +879,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G19"/>
+  <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -817,9 +893,11 @@
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="85.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
@@ -835,220 +913,272 @@
       <c r="F2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="G2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="I4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="I5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="9"/>
+      <c r="C6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="13"/>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="13"/>
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="G7" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="G8" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+    <row r="10" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+    <row r="11" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:11" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="2:7" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="E16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1059,8 +1189,8 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1069,6 +1199,12 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="8"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1093,10 +1229,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="1">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1168,7 +1307,7 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -1184,15 +1323,15 @@
         <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -1200,12 +1339,12 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
@@ -1213,7 +1352,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1221,10 +1360,10 @@
     </row>
     <row r="15" spans="2:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
@@ -1249,6 +1388,11 @@
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/etc/프로젝트 기능.xlsx
+++ b/etc/프로젝트 기능.xlsx
@@ -10,7 +10,6 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="8370"/>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="최종" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <t>국내 해외 여행지 소개 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>백수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지역별 인기 있는 여행지 랭킹
 (각 지역을 클릭했을때 사진과 별점? 방문 수? 등이 표시되며 인기가 많은 순으로 표시가 되거나
  기본은 최신 등록순으로 정렬이 되어있지만 &lt;방문 수, 별점, 최신순&gt;으로 정렬 기능?)</t>
@@ -446,6 +441,35 @@
   </si>
   <si>
     <t>김강태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김강태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트엔드 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적인 틀 백수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">api </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내
+해당 지역 소개 및 볼거리(문화재 등등, 리뷰의 평점에 따른 추천 장소 or 랜덤으로 추천)
+볼거리를 선택했을 경우-&gt; 지도의 위치 표시(길찾기 페이지로 이동)
+해외
+해당 국가의 소개 및 볼거리
+볼거리를 선택했을 경우 -&gt; 공항편 정보 페이지로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,6 +605,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,12 +622,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,9 +906,8 @@
   <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -894,6 +917,7 @@
     <col min="5" max="5" width="56.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="85.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -917,60 +941,60 @@
         <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
         <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="I4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2" t="s">
         <v>74</v>
       </c>
@@ -980,23 +1004,23 @@
       <c r="F5" s="2"/>
       <c r="G5" s="8"/>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="2" t="s">
         <v>76</v>
       </c>
@@ -1005,21 +1029,21 @@
         <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>85</v>
+        <v>93</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1032,10 +1056,10 @@
       <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -1043,12 +1067,18 @@
       <c r="G8" s="8" t="s">
         <v>82</v>
       </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1061,10 +1091,13 @@
         <v>48</v>
       </c>
       <c r="G9" s="8"/>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="10" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1077,8 +1110,8 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
@@ -1091,7 +1124,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1101,17 +1134,17 @@
         <v>72</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
@@ -1119,15 +1152,17 @@
         <v>50</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="2:11" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>58</v>
       </c>
@@ -1135,7 +1170,7 @@
         <v>79</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>60</v>
@@ -1149,24 +1184,24 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="2" t="s">
         <v>64</v>
       </c>
@@ -1177,8 +1212,8 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1189,8 +1224,8 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1201,10 +1236,10 @@
       <c r="G19" s="8"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="15"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="15"/>
+      <c r="E22" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1232,10 +1267,7 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="1">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1323,7 +1355,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
@@ -1392,7 +1424,7 @@
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/etc/프로젝트 기능.xlsx
+++ b/etc/프로젝트 기능.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
   <si>
     <t>국내 해외 여행지 소개 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,10 +202,6 @@
   </si>
   <si>
     <t>국내 여행지 랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국내 축제 랭킹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -364,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>login 기능 완성되고 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>축제에 대한 내용을 상세하게 기재(주소에 따라 지도 표시되면 좋음)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,10 +445,6 @@
   </si>
   <si>
     <t>프론트엔드 디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체적인 틀 백수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -470,6 +458,47 @@
 해외
 해당 국가의 소개 및 볼거리
 볼거리를 선택했을 경우 -&gt; 공항편 정보 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내 축제 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안성빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안성빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 주소 검색 api, 카카오 map api 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백수정
+구형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 프론트 엔드 전체적인 디자인 작업 및 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김강태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -935,17 +964,17 @@
         <v>25</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -961,16 +990,16 @@
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -983,34 +1012,34 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="I4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="8"/>
       <c r="I5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -1018,30 +1047,30 @@
         <v>32</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="2" t="s">
@@ -1049,7 +1078,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="33" x14ac:dyDescent="0.3">
@@ -1061,17 +1090,20 @@
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" t="s">
-        <v>102</v>
+        <v>80</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="33" x14ac:dyDescent="0.3">
@@ -1085,14 +1117,22 @@
         <v>42</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="I9" t="s">
-        <v>103</v>
+        <v>47</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="33" x14ac:dyDescent="0.3">
@@ -1102,114 +1142,117 @@
         <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="11" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:11" ht="66" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="15"/>
@@ -1221,7 +1264,9 @@
         <v>13</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
@@ -1233,7 +1278,9 @@
         <v>16</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E21" s="11"/>
@@ -1339,7 +1386,7 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -1355,15 +1402,15 @@
         <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -1371,12 +1418,12 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
@@ -1384,7 +1431,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1392,10 +1439,10 @@
     </row>
     <row r="15" spans="2:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
@@ -1424,7 +1471,7 @@
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/etc/프로젝트 기능.xlsx
+++ b/etc/프로젝트 기능.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t>국내 해외 여행지 소개 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,30 +197,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해외 여행지 랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국내 여행지 랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 인기 있는 여행지 랭킹
-(사진, 별점, 방문수 등으로 표시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해외 인기 있는 여행지 랭킹 
-(사진, 별점, 방문수 등으로 표시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 인기 있는 축제 랭킹
-(사진, 별점, 방문수 등으로 표시)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -258,10 +235,6 @@
   </si>
   <si>
     <t>여행 코스 랜덤 추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -278,11 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>국내 클릭 시 길찾기 페이지 이동
-공항편 정보(해외지역)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클릭 시 상세 페이지 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,10 +304,6 @@
   </si>
   <si>
     <t>랭킹(일부분만)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랭킹 내역으로 5초 간격으로 하나씩 띄우기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -353,10 +317,6 @@
   </si>
   <si>
     <t>김강태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -377,11 +337,6 @@
     <t>리뷰ID, TRAVELINFOID(외래키), USERID(외래키), REVIEW 점수, REVIEW 내용</t>
   </si>
   <si>
-    <t>카테고리에 대한 내용을 상세하게 기재(주소에 따라 지도 표시되면 좋음)
-카테고리 상세페이지, 축제 상세페이지에서 리뷰 작성하고 바로 확인 할 수 있게 하면 될 것 같습니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등록한 여행지 관련된 정보 보여주기(수정, 삭제 기능)
 장소명 옆에 별점 넣기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,24 +407,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>국내
-해당 지역 소개 및 볼거리(문화재 등등, 리뷰의 평점에 따른 추천 장소 or 랜덤으로 추천)
-볼거리를 선택했을 경우-&gt; 지도의 위치 표시(길찾기 페이지로 이동)
-해외
-해당 국가의 소개 및 볼거리
-볼거리를 선택했을 경우 -&gt; 공항편 정보 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국내 축제 랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>백수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안성빈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -499,6 +437,38 @@
   </si>
   <si>
     <t>김강태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내/해외 인기 있는 여행지 랭킹
+(사진, 별점, 방문수 등으로 표시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 인기 있는 축제 랭킹
+(사진, 별점, 방문수 등으로 표시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹 내역으로 5초 간격으로 하나씩 띄우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안성빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리에 대한 내용을 상세하게 기재(주소에 따라 지도 표시되면 좋음)
+카테고리 상세페이지, 축제 상세페이지에서 리뷰 작성하고 바로 확인 할 수 있게 하면 될 것 같습니다!
+리뷰 (등록, 목록)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
+  <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -964,17 +934,17 @@
         <v>25</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -990,16 +960,16 @@
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -1012,34 +982,36 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="I4" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="I5" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -1047,30 +1019,30 @@
         <v>32</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="2" t="s">
@@ -1078,7 +1050,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="33" x14ac:dyDescent="0.3">
@@ -1090,20 +1062,20 @@
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="33" x14ac:dyDescent="0.3">
@@ -1114,194 +1086,162 @@
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="2:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
-        <v>64</v>
-      </c>
+    <row r="16" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>83</v>
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="8" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>79</v>
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="11"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="B14:C17"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B3:C5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1386,7 +1326,7 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -1402,15 +1342,15 @@
         <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -1418,12 +1358,12 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
@@ -1431,7 +1371,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1439,10 +1379,10 @@
     </row>
     <row r="15" spans="2:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
@@ -1471,7 +1411,7 @@
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/etc/프로젝트 기능.xlsx
+++ b/etc/프로젝트 기능.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t>국내 해외 여행지 소개 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,12 +471,20 @@
 리뷰 (등록, 목록)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>별점 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/Review/Ranking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +505,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -565,12 +582,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,9 +642,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -904,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J24" sqref="J23:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1179,6 +1203,12 @@
       <c r="G14" s="8" t="s">
         <v>63</v>
       </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="15" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="15"/>
@@ -1244,8 +1274,11 @@
     <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/etc/프로젝트 기능.xlsx
+++ b/etc/프로젝트 기능.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
   <si>
     <t>국내 해외 여행지 소개 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,11 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카테고리로 필터걸어서 검색결과 가져오기
-검색결과는 '표형식'으로 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김강태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,6 +472,23 @@
   </si>
   <si>
     <t>http://localhost:8080/Review/Ranking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리로 필터걸어서 검색결과 가져오기
+검색결과는 '표형식'으로 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내/해외 필터걸어서 검색결과 과져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -581,6 +593,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -590,7 +628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,9 +639,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -630,6 +665,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,8 +683,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -926,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K20"/>
+  <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J24" sqref="J23:J24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -945,333 +989,349 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
         <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
       <c r="I4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="8" t="s">
-        <v>69</v>
+      <c r="G7" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="4" t="s">
-        <v>68</v>
+      <c r="D8" s="16"/>
+      <c r="E8" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="8" t="s">
-        <v>71</v>
+      <c r="G8" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+      <c r="C9" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+    <row r="10" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
       <c r="D10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="4" t="s">
         <v>100</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="16"/>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="F13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G14" s="8"/>
+      <c r="I14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="2" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="8" t="s">
+      <c r="E15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="2" t="s">
+    </row>
+    <row r="16" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="11"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="11"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B14:C17"/>
+    <mergeCell ref="B15:C18"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B3:C5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1375,7 +1435,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
@@ -1395,7 +1455,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1444,7 +1504,7 @@
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
